--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F9DEE5-ECA3-463D-A420-98BE7C2A2404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44BA30-366B-43A4-95B4-D70E14079E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="2810" windowWidth="9730" windowHeight="7270" xr2:uid="{EC3D8A11-1101-40AD-928F-9CD5DB7DC282}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="9730" windowHeight="7270" xr2:uid="{EC3D8A11-1101-40AD-928F-9CD5DB7DC282}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
